--- a/Data/EC/NIT-9002647266.xlsx
+++ b/Data/EC/NIT-9002647266.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADEA90B-B80C-4024-A1AC-61FAC40292ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A9D68D-0D73-44EE-B738-C1D06B08C126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C564EFF2-3A3C-400E-9E4C-4DC1591BB46F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CCCEA5D2-D0BA-4EFB-AF84-15C2C99C5A90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,196 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050921242</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO SANCHEZ NIÑO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>3985716</t>
+  </si>
+  <si>
+    <t>JOSE ARTURO ACEVEDO MORENO</t>
+  </si>
+  <si>
+    <t>5654430</t>
+  </si>
+  <si>
+    <t>HERNANDO MONSALVE CALDERON</t>
+  </si>
+  <si>
+    <t>3579953</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO PARRA</t>
+  </si>
+  <si>
+    <t>6794909</t>
+  </si>
+  <si>
+    <t>ENMANUEL PEDROZO SURMAY</t>
+  </si>
+  <si>
+    <t>77130233</t>
+  </si>
+  <si>
+    <t>LUIS HERNANDO PEREZ GARNICA</t>
+  </si>
+  <si>
+    <t>17336209</t>
+  </si>
+  <si>
+    <t>LUIS EVELIO QUINTERO CIRO</t>
+  </si>
+  <si>
+    <t>91540151</t>
+  </si>
+  <si>
+    <t>JHON EDINSON FONSECA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1049291817</t>
+  </si>
+  <si>
+    <t>NUBIA MILENA NOVA BECERRA</t>
+  </si>
+  <si>
+    <t>98600051</t>
+  </si>
+  <si>
+    <t>NICOLAS ARTURO ORTIZ MUENTES</t>
+  </si>
+  <si>
+    <t>1007640449</t>
+  </si>
+  <si>
+    <t>NELSON MORERA AIZALES</t>
+  </si>
+  <si>
+    <t>1050923630</t>
+  </si>
+  <si>
+    <t>DEINER ROJAS QUINTERO</t>
+  </si>
+  <si>
+    <t>18916557</t>
+  </si>
+  <si>
+    <t>MACARIO RIOS</t>
+  </si>
+  <si>
+    <t>10886272</t>
+  </si>
+  <si>
+    <t>WILBER JOSE SOLORZANO CANCHILA</t>
+  </si>
+  <si>
+    <t>3983032</t>
+  </si>
+  <si>
+    <t>WILLIAN ARENAS CARRANZA</t>
+  </si>
+  <si>
+    <t>28156946</t>
+  </si>
+  <si>
+    <t>DIARLIS PEREZ ACEVEDO</t>
+  </si>
+  <si>
     <t>63527366</t>
   </si>
   <si>
     <t>JACKELINE LIEVANO LEGUIZAMO</t>
   </si>
   <si>
-    <t>1607</t>
+    <t>1007640450</t>
+  </si>
+  <si>
+    <t>EDINSON MORERA AIZALES</t>
+  </si>
+  <si>
+    <t>77130609</t>
+  </si>
+  <si>
+    <t>MARTIN JOSE ALBAO</t>
+  </si>
+  <si>
+    <t>1050920038</t>
+  </si>
+  <si>
+    <t>OSNAIDER PALLARES ROA</t>
+  </si>
+  <si>
+    <t>3985528</t>
+  </si>
+  <si>
+    <t>ERASMO SANDOVAL CONTRERAS</t>
+  </si>
+  <si>
+    <t>1063951137</t>
+  </si>
+  <si>
+    <t>JHON JAIRO TORREZ LECHUGA</t>
+  </si>
+  <si>
+    <t>18922963</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL RODRIGUEZ QUINTERO</t>
+  </si>
+  <si>
+    <t>1050920345</t>
+  </si>
+  <si>
+    <t>ROBINSON MORERA AIZALES</t>
+  </si>
+  <si>
+    <t>91136546</t>
+  </si>
+  <si>
+    <t>EXNEVER QUICENO ESTRADA</t>
+  </si>
+  <si>
+    <t>1050920826</t>
+  </si>
+  <si>
+    <t>JORGE EUCLIBER FONTECHA GAMBOA</t>
+  </si>
+  <si>
+    <t>12455903</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO DURAN VACA</t>
+  </si>
+  <si>
+    <t>1064839641</t>
+  </si>
+  <si>
+    <t>ALFONSO PALACIO CALDERON</t>
+  </si>
+  <si>
+    <t>1101384695</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO RODRIGUEZ FLOREZ</t>
+  </si>
+  <si>
+    <t>3864707</t>
+  </si>
+  <si>
+    <t>EDINSON LONDOÑO GARCIA</t>
+  </si>
+  <si>
+    <t>3864708</t>
+  </si>
+  <si>
+    <t>ORLANDO DE JESUS MOLINA LONDOÑA</t>
   </si>
   <si>
     <t>1147687407</t>
@@ -80,199 +263,16 @@
     <t>SERGIO ANDRES QUINTERO PEINADO</t>
   </si>
   <si>
-    <t>3579953</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO PARRA</t>
-  </si>
-  <si>
-    <t>3985716</t>
-  </si>
-  <si>
-    <t>JOSE ARTURO ACEVEDO MORENO</t>
+    <t>49673261</t>
+  </si>
+  <si>
+    <t>LUZ DENYS CUARTAS VALLEJO</t>
   </si>
   <si>
     <t>85161143</t>
   </si>
   <si>
     <t>ALBERTO ENRIQUE CASTILLO DIAZ</t>
-  </si>
-  <si>
-    <t>6794909</t>
-  </si>
-  <si>
-    <t>ENMANUEL PEDROZO SURMAY</t>
-  </si>
-  <si>
-    <t>12455903</t>
-  </si>
-  <si>
-    <t>CARLOS JULIO DURAN VACA</t>
-  </si>
-  <si>
-    <t>1050920038</t>
-  </si>
-  <si>
-    <t>OSNAIDER PALLARES ROA</t>
-  </si>
-  <si>
-    <t>91540151</t>
-  </si>
-  <si>
-    <t>JHON EDINSON FONSECA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1050920345</t>
-  </si>
-  <si>
-    <t>ROBINSON MORERA AIZALES</t>
-  </si>
-  <si>
-    <t>28156946</t>
-  </si>
-  <si>
-    <t>DIARLIS PEREZ ACEVEDO</t>
-  </si>
-  <si>
-    <t>3983032</t>
-  </si>
-  <si>
-    <t>WILLIAN ARENAS CARRANZA</t>
-  </si>
-  <si>
-    <t>1101384695</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO RODRIGUEZ FLOREZ</t>
-  </si>
-  <si>
-    <t>1007640449</t>
-  </si>
-  <si>
-    <t>NELSON MORERA AIZALES</t>
-  </si>
-  <si>
-    <t>3985528</t>
-  </si>
-  <si>
-    <t>ERASMO SANDOVAL CONTRERAS</t>
-  </si>
-  <si>
-    <t>18916557</t>
-  </si>
-  <si>
-    <t>MACARIO RIOS</t>
-  </si>
-  <si>
-    <t>1050920826</t>
-  </si>
-  <si>
-    <t>JORGE EUCLIBER FONTECHA GAMBOA</t>
-  </si>
-  <si>
-    <t>1050923630</t>
-  </si>
-  <si>
-    <t>DEINER ROJAS QUINTERO</t>
-  </si>
-  <si>
-    <t>17336209</t>
-  </si>
-  <si>
-    <t>LUIS EVELIO QUINTERO CIRO</t>
-  </si>
-  <si>
-    <t>18922963</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL RODRIGUEZ QUINTERO</t>
-  </si>
-  <si>
-    <t>98600051</t>
-  </si>
-  <si>
-    <t>NICOLAS ARTURO ORTIZ MUENTES</t>
-  </si>
-  <si>
-    <t>1063951137</t>
-  </si>
-  <si>
-    <t>JHON JAIRO TORREZ LECHUGA</t>
-  </si>
-  <si>
-    <t>91136546</t>
-  </si>
-  <si>
-    <t>EXNEVER QUICENO ESTRADA</t>
-  </si>
-  <si>
-    <t>10886272</t>
-  </si>
-  <si>
-    <t>WILBER JOSE SOLORZANO CANCHILA</t>
-  </si>
-  <si>
-    <t>1064839641</t>
-  </si>
-  <si>
-    <t>ALFONSO PALACIO CALDERON</t>
-  </si>
-  <si>
-    <t>1049291817</t>
-  </si>
-  <si>
-    <t>NUBIA MILENA NOVA BECERRA</t>
-  </si>
-  <si>
-    <t>77130609</t>
-  </si>
-  <si>
-    <t>MARTIN JOSE ALBAO</t>
-  </si>
-  <si>
-    <t>3864708</t>
-  </si>
-  <si>
-    <t>ORLANDO DE JESUS MOLINA LONDOÑA</t>
-  </si>
-  <si>
-    <t>1007640450</t>
-  </si>
-  <si>
-    <t>EDINSON MORERA AIZALES</t>
-  </si>
-  <si>
-    <t>3864707</t>
-  </si>
-  <si>
-    <t>EDINSON LONDOÑO GARCIA</t>
-  </si>
-  <si>
-    <t>5654430</t>
-  </si>
-  <si>
-    <t>HERNANDO MONSALVE CALDERON</t>
-  </si>
-  <si>
-    <t>77130233</t>
-  </si>
-  <si>
-    <t>LUIS HERNANDO PEREZ GARNICA</t>
-  </si>
-  <si>
-    <t>1050921242</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO SANCHEZ NIÑO</t>
-  </si>
-  <si>
-    <t>49673261</t>
-  </si>
-  <si>
-    <t>LUZ DENYS CUARTAS VALLEJO</t>
-  </si>
-  <si>
-    <t>1608</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -686,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369C8E84-C82A-7F42-E6F0-F5D8E3B19290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9E596D-67A5-9278-9F66-938ECDE1D118}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5879C4-8BF8-44FA-8B67-64DF2609FF24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27235AEB-4D58-43EC-922A-D5DAB6BEF57A}">
   <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1215,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27580</v>
+        <v>36000</v>
       </c>
       <c r="G16" s="18">
-        <v>689500</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1229,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="18">
         <v>36000</v>
@@ -1252,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1275,13 +1275,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
         <v>36000</v>
@@ -1298,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="18">
-        <v>689454</v>
+        <v>900000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1321,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
         <v>36000</v>
@@ -1344,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
@@ -1367,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1390,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
@@ -1413,19 +1413,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
-        <v>503200</v>
+        <v>36000</v>
       </c>
       <c r="G25" s="18">
-        <v>1258000</v>
+        <v>900000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1436,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>27578</v>
@@ -1482,10 +1482,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>11</v>
@@ -1505,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>36000</v>
@@ -1528,10 +1528,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>11</v>
@@ -1551,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
-        <v>42960</v>
+        <v>36000</v>
       </c>
       <c r="G31" s="18">
-        <v>1074000</v>
+        <v>900000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1574,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1597,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="18">
         <v>36000</v>
@@ -1620,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>11</v>
@@ -1643,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
         <v>36000</v>
@@ -1666,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>11</v>
@@ -1689,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
         <v>36000</v>
@@ -1712,10 +1712,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>11</v>
@@ -1735,13 +1735,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="18">
         <v>36000</v>
@@ -1758,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>36000</v>
+        <v>42960</v>
       </c>
       <c r="G40" s="18">
-        <v>900000</v>
+        <v>1074000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1781,19 +1781,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
-        <v>36000</v>
+        <v>42960</v>
       </c>
       <c r="G41" s="18">
-        <v>900000</v>
+        <v>1074000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
         <v>36000</v>
@@ -1850,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1873,10 +1873,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>11</v>
@@ -1896,13 +1896,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="18">
         <v>36000</v>
@@ -1919,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>27580</v>
       </c>
       <c r="G47" s="18">
-        <v>689455</v>
+        <v>689500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1942,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="18">
-        <v>36000</v>
+        <v>27580</v>
       </c>
       <c r="G48" s="18">
-        <v>900000</v>
+        <v>689500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1965,10 +1965,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>11</v>
@@ -1988,13 +1988,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
         <v>36000</v>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2034,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2057,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G53" s="18">
-        <v>689454</v>
+        <v>900000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2080,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E54" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F54" s="18">
         <v>36000</v>
@@ -2103,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18">
         <v>36000</v>
@@ -2126,19 +2126,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G56" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F57" s="18">
         <v>36000</v>
       </c>
       <c r="G57" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2172,16 +2172,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G58" s="18">
         <v>689455</v>
@@ -2195,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F59" s="18">
         <v>36000</v>
@@ -2218,13 +2218,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F60" s="18">
         <v>36000</v>
@@ -2241,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18">
-        <v>27580</v>
+        <v>503200</v>
       </c>
       <c r="G61" s="18">
-        <v>689500</v>
+        <v>1258000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2264,13 +2264,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F62" s="18">
         <v>503200</v>
@@ -2287,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
         <v>36000</v>
@@ -2310,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
         <v>36000</v>
@@ -2333,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F65" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2356,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F66" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2379,13 +2379,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F67" s="18">
         <v>27578</v>
@@ -2402,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F68" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G68" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2425,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F69" s="18">
         <v>36000</v>
@@ -2448,13 +2448,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F70" s="18">
         <v>36000</v>
@@ -2471,13 +2471,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F71" s="18">
         <v>36000</v>
@@ -2494,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F72" s="18">
         <v>36000</v>
@@ -2517,13 +2517,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="E73" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
         <v>36000</v>
@@ -2540,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G74" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2563,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F75" s="18">
-        <v>42960</v>
+        <v>36000</v>
       </c>
       <c r="G75" s="18">
-        <v>1074000</v>
+        <v>900000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2586,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F76" s="18">
         <v>36000</v>
@@ -2609,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18">
         <v>36000</v>
@@ -2632,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F78" s="18">
         <v>36000</v>
@@ -2655,19 +2655,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G79" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2678,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F80" s="18">
         <v>36000</v>
@@ -2701,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F81" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G81" s="18">
-        <v>900000</v>
+        <v>689454</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2724,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F82" s="24">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G82" s="24">
-        <v>900000</v>
+        <v>689454</v>
       </c>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>

--- a/Data/EC/NIT-9002647266.xlsx
+++ b/Data/EC/NIT-9002647266.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A9D68D-0D73-44EE-B738-C1D06B08C126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C660382-95E7-4542-BC9A-AC17CC1ACA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CCCEA5D2-D0BA-4EFB-AF84-15C2C99C5A90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86B9DFE1-9919-4CA8-BE63-C6B44C3DE231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,208 +71,208 @@
     <t>JOSE ANTONIO SANCHEZ NIÑO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>3985716</t>
+  </si>
+  <si>
+    <t>JOSE ARTURO ACEVEDO MORENO</t>
+  </si>
+  <si>
+    <t>5654430</t>
+  </si>
+  <si>
+    <t>HERNANDO MONSALVE CALDERON</t>
+  </si>
+  <si>
+    <t>3579953</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO PARRA</t>
+  </si>
+  <si>
+    <t>6794909</t>
+  </si>
+  <si>
+    <t>ENMANUEL PEDROZO SURMAY</t>
+  </si>
+  <si>
+    <t>77130233</t>
+  </si>
+  <si>
+    <t>LUIS HERNANDO PEREZ GARNICA</t>
+  </si>
+  <si>
+    <t>17336209</t>
+  </si>
+  <si>
+    <t>LUIS EVELIO QUINTERO CIRO</t>
+  </si>
+  <si>
+    <t>91540151</t>
+  </si>
+  <si>
+    <t>JHON EDINSON FONSECA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1049291817</t>
+  </si>
+  <si>
+    <t>NUBIA MILENA NOVA BECERRA</t>
+  </si>
+  <si>
+    <t>98600051</t>
+  </si>
+  <si>
+    <t>NICOLAS ARTURO ORTIZ MUENTES</t>
+  </si>
+  <si>
+    <t>1007640449</t>
+  </si>
+  <si>
+    <t>NELSON MORERA AIZALES</t>
+  </si>
+  <si>
+    <t>1050923630</t>
+  </si>
+  <si>
+    <t>DEINER ROJAS QUINTERO</t>
+  </si>
+  <si>
+    <t>18916557</t>
+  </si>
+  <si>
+    <t>MACARIO RIOS</t>
+  </si>
+  <si>
+    <t>10886272</t>
+  </si>
+  <si>
+    <t>WILBER JOSE SOLORZANO CANCHILA</t>
+  </si>
+  <si>
+    <t>3983032</t>
+  </si>
+  <si>
+    <t>WILLIAN ARENAS CARRANZA</t>
+  </si>
+  <si>
+    <t>28156946</t>
+  </si>
+  <si>
+    <t>DIARLIS PEREZ ACEVEDO</t>
+  </si>
+  <si>
+    <t>63527366</t>
+  </si>
+  <si>
+    <t>JACKELINE LIEVANO LEGUIZAMO</t>
+  </si>
+  <si>
+    <t>1007640450</t>
+  </si>
+  <si>
+    <t>EDINSON MORERA AIZALES</t>
+  </si>
+  <si>
+    <t>77130609</t>
+  </si>
+  <si>
+    <t>MARTIN JOSE ALBAO</t>
+  </si>
+  <si>
+    <t>1050920038</t>
+  </si>
+  <si>
+    <t>OSNAIDER PALLARES ROA</t>
+  </si>
+  <si>
+    <t>3985528</t>
+  </si>
+  <si>
+    <t>ERASMO SANDOVAL CONTRERAS</t>
+  </si>
+  <si>
+    <t>1063951137</t>
+  </si>
+  <si>
+    <t>JHON JAIRO TORREZ LECHUGA</t>
+  </si>
+  <si>
+    <t>18922963</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL RODRIGUEZ QUINTERO</t>
+  </si>
+  <si>
+    <t>1050920345</t>
+  </si>
+  <si>
+    <t>ROBINSON MORERA AIZALES</t>
+  </si>
+  <si>
+    <t>91136546</t>
+  </si>
+  <si>
+    <t>EXNEVER QUICENO ESTRADA</t>
+  </si>
+  <si>
+    <t>1050920826</t>
+  </si>
+  <si>
+    <t>JORGE EUCLIBER FONTECHA GAMBOA</t>
+  </si>
+  <si>
+    <t>12455903</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO DURAN VACA</t>
+  </si>
+  <si>
+    <t>1064839641</t>
+  </si>
+  <si>
+    <t>ALFONSO PALACIO CALDERON</t>
+  </si>
+  <si>
+    <t>1101384695</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO RODRIGUEZ FLOREZ</t>
+  </si>
+  <si>
+    <t>3864707</t>
+  </si>
+  <si>
+    <t>EDINSON LONDOÑO GARCIA</t>
+  </si>
+  <si>
+    <t>3864708</t>
+  </si>
+  <si>
+    <t>ORLANDO DE JESUS MOLINA LONDOÑA</t>
+  </si>
+  <si>
+    <t>1147687407</t>
+  </si>
+  <si>
+    <t>SERGIO ANDRES QUINTERO PEINADO</t>
+  </si>
+  <si>
+    <t>49673261</t>
+  </si>
+  <si>
+    <t>LUZ DENYS CUARTAS VALLEJO</t>
+  </si>
+  <si>
+    <t>85161143</t>
+  </si>
+  <si>
+    <t>ALBERTO ENRIQUE CASTILLO DIAZ</t>
+  </si>
+  <si>
     <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>3985716</t>
-  </si>
-  <si>
-    <t>JOSE ARTURO ACEVEDO MORENO</t>
-  </si>
-  <si>
-    <t>5654430</t>
-  </si>
-  <si>
-    <t>HERNANDO MONSALVE CALDERON</t>
-  </si>
-  <si>
-    <t>3579953</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO PARRA</t>
-  </si>
-  <si>
-    <t>6794909</t>
-  </si>
-  <si>
-    <t>ENMANUEL PEDROZO SURMAY</t>
-  </si>
-  <si>
-    <t>77130233</t>
-  </si>
-  <si>
-    <t>LUIS HERNANDO PEREZ GARNICA</t>
-  </si>
-  <si>
-    <t>17336209</t>
-  </si>
-  <si>
-    <t>LUIS EVELIO QUINTERO CIRO</t>
-  </si>
-  <si>
-    <t>91540151</t>
-  </si>
-  <si>
-    <t>JHON EDINSON FONSECA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1049291817</t>
-  </si>
-  <si>
-    <t>NUBIA MILENA NOVA BECERRA</t>
-  </si>
-  <si>
-    <t>98600051</t>
-  </si>
-  <si>
-    <t>NICOLAS ARTURO ORTIZ MUENTES</t>
-  </si>
-  <si>
-    <t>1007640449</t>
-  </si>
-  <si>
-    <t>NELSON MORERA AIZALES</t>
-  </si>
-  <si>
-    <t>1050923630</t>
-  </si>
-  <si>
-    <t>DEINER ROJAS QUINTERO</t>
-  </si>
-  <si>
-    <t>18916557</t>
-  </si>
-  <si>
-    <t>MACARIO RIOS</t>
-  </si>
-  <si>
-    <t>10886272</t>
-  </si>
-  <si>
-    <t>WILBER JOSE SOLORZANO CANCHILA</t>
-  </si>
-  <si>
-    <t>3983032</t>
-  </si>
-  <si>
-    <t>WILLIAN ARENAS CARRANZA</t>
-  </si>
-  <si>
-    <t>28156946</t>
-  </si>
-  <si>
-    <t>DIARLIS PEREZ ACEVEDO</t>
-  </si>
-  <si>
-    <t>63527366</t>
-  </si>
-  <si>
-    <t>JACKELINE LIEVANO LEGUIZAMO</t>
-  </si>
-  <si>
-    <t>1007640450</t>
-  </si>
-  <si>
-    <t>EDINSON MORERA AIZALES</t>
-  </si>
-  <si>
-    <t>77130609</t>
-  </si>
-  <si>
-    <t>MARTIN JOSE ALBAO</t>
-  </si>
-  <si>
-    <t>1050920038</t>
-  </si>
-  <si>
-    <t>OSNAIDER PALLARES ROA</t>
-  </si>
-  <si>
-    <t>3985528</t>
-  </si>
-  <si>
-    <t>ERASMO SANDOVAL CONTRERAS</t>
-  </si>
-  <si>
-    <t>1063951137</t>
-  </si>
-  <si>
-    <t>JHON JAIRO TORREZ LECHUGA</t>
-  </si>
-  <si>
-    <t>18922963</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL RODRIGUEZ QUINTERO</t>
-  </si>
-  <si>
-    <t>1050920345</t>
-  </si>
-  <si>
-    <t>ROBINSON MORERA AIZALES</t>
-  </si>
-  <si>
-    <t>91136546</t>
-  </si>
-  <si>
-    <t>EXNEVER QUICENO ESTRADA</t>
-  </si>
-  <si>
-    <t>1050920826</t>
-  </si>
-  <si>
-    <t>JORGE EUCLIBER FONTECHA GAMBOA</t>
-  </si>
-  <si>
-    <t>12455903</t>
-  </si>
-  <si>
-    <t>CARLOS JULIO DURAN VACA</t>
-  </si>
-  <si>
-    <t>1064839641</t>
-  </si>
-  <si>
-    <t>ALFONSO PALACIO CALDERON</t>
-  </si>
-  <si>
-    <t>1101384695</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO RODRIGUEZ FLOREZ</t>
-  </si>
-  <si>
-    <t>3864707</t>
-  </si>
-  <si>
-    <t>EDINSON LONDOÑO GARCIA</t>
-  </si>
-  <si>
-    <t>3864708</t>
-  </si>
-  <si>
-    <t>ORLANDO DE JESUS MOLINA LONDOÑA</t>
-  </si>
-  <si>
-    <t>1147687407</t>
-  </si>
-  <si>
-    <t>SERGIO ANDRES QUINTERO PEINADO</t>
-  </si>
-  <si>
-    <t>49673261</t>
-  </si>
-  <si>
-    <t>LUZ DENYS CUARTAS VALLEJO</t>
-  </si>
-  <si>
-    <t>85161143</t>
-  </si>
-  <si>
-    <t>ALBERTO ENRIQUE CASTILLO DIAZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -371,7 +371,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -384,9 +386,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -586,23 +586,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,10 +630,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9E596D-67A5-9278-9F66-938ECDE1D118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17953FF-912B-6F88-9D37-8EB26355144A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27235AEB-4D58-43EC-922A-D5DAB6BEF57A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C259C5C-CD76-490E-8D9B-BCAC041DF9FF}">
   <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1229,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>36000</v>
@@ -1252,10 +1252,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
@@ -1275,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1298,10 +1298,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1321,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1344,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1367,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1390,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
@@ -1413,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>36000</v>
@@ -1436,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1482,19 +1482,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>36000</v>
+        <v>42960</v>
       </c>
       <c r="G28" s="18">
-        <v>900000</v>
+        <v>1074000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1505,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
         <v>36000</v>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1551,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>36000</v>
@@ -1574,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>36000</v>
+        <v>27580</v>
       </c>
       <c r="G32" s="18">
-        <v>900000</v>
+        <v>689500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1597,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
         <v>36000</v>
@@ -1620,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1643,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
         <v>36000</v>
@@ -1666,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>11</v>
@@ -1689,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
         <v>36000</v>
@@ -1712,10 +1712,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>11</v>
@@ -1735,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>36000</v>
+        <v>503200</v>
       </c>
       <c r="G39" s="18">
-        <v>900000</v>
+        <v>1258000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1758,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>42960</v>
+        <v>36000</v>
       </c>
       <c r="G40" s="18">
-        <v>1074000</v>
+        <v>900000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1781,19 +1781,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
-        <v>42960</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>1074000</v>
+        <v>689455</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
         <v>36000</v>
@@ -1850,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G44" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1873,10 +1873,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>11</v>
@@ -1896,13 +1896,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
         <v>36000</v>
@@ -1919,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>27580</v>
+        <v>36000</v>
       </c>
       <c r="G47" s="18">
-        <v>689500</v>
+        <v>900000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1942,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>27580</v>
+        <v>36000</v>
       </c>
       <c r="G48" s="18">
-        <v>689500</v>
+        <v>900000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1965,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
-        <v>900000</v>
+        <v>689454</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1988,13 +1988,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F50" s="18">
         <v>36000</v>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G51" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2034,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2057,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F53" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2080,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F54" s="18">
         <v>36000</v>
@@ -2103,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F55" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2126,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F56" s="18">
         <v>36000</v>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F57" s="18">
         <v>36000</v>
       </c>
       <c r="G57" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2172,19 +2172,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F58" s="18">
         <v>36000</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2195,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F59" s="18">
         <v>36000</v>
@@ -2218,13 +2218,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F60" s="18">
         <v>36000</v>
@@ -2241,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F61" s="18">
-        <v>503200</v>
+        <v>36000</v>
       </c>
       <c r="G61" s="18">
-        <v>1258000</v>
+        <v>900000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2264,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F62" s="18">
-        <v>503200</v>
+        <v>42960</v>
       </c>
       <c r="G62" s="18">
-        <v>1258000</v>
+        <v>1074000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2287,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F63" s="18">
         <v>36000</v>
@@ -2310,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F64" s="18">
         <v>36000</v>
@@ -2333,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>27580</v>
       </c>
       <c r="G65" s="18">
-        <v>689455</v>
+        <v>689500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2356,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G66" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2379,13 +2379,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F67" s="18">
         <v>27578</v>
@@ -2402,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G68" s="18">
-        <v>689455</v>
+        <v>900000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2425,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F69" s="18">
         <v>36000</v>
@@ -2448,13 +2448,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F70" s="18">
         <v>36000</v>
@@ -2471,13 +2471,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F71" s="18">
         <v>36000</v>
@@ -2494,19 +2494,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F72" s="18">
-        <v>36000</v>
+        <v>503200</v>
       </c>
       <c r="G72" s="18">
-        <v>900000</v>
+        <v>1258000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2517,13 +2517,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F73" s="18">
         <v>36000</v>
@@ -2540,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F74" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G74" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2563,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F75" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G75" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2586,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F76" s="18">
         <v>36000</v>
@@ -2609,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F77" s="18">
         <v>36000</v>
@@ -2632,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F78" s="18">
         <v>36000</v>
@@ -2655,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F79" s="18">
         <v>36000</v>
@@ -2678,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>36000</v>
@@ -2701,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="18">
-        <v>689454</v>
+        <v>900000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2724,13 +2724,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="E82" s="22" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F82" s="24">
         <v>27578</v>
